--- a/data/trans_bre/P15_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,65</t>
+          <t>23,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>-12,74%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 12,18</t>
+          <t>-1,07; 14,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 5,64</t>
+          <t>-8,83; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 33,54</t>
+          <t>1,74; 53,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 20,94</t>
+          <t>-34,83; 16,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 14,98</t>
+          <t>-1,09; 16,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 6,3</t>
+          <t>-8,96; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 70,63</t>
+          <t>2,12; 177,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 44,19</t>
+          <t>-49,6; 42,26</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>41,54%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 13,99</t>
+          <t>-3,8; 16,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 10,01</t>
+          <t>-4,43; 10,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 9,84</t>
+          <t>-10,18; 12,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 15,86</t>
+          <t>-1,9; 23,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 19,92</t>
+          <t>-5,02; 25,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 12,58</t>
+          <t>-4,85; 13,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 19,1</t>
+          <t>-15,81; 24,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 46,69</t>
+          <t>-5,58; 101,7</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,63%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>11,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 5,06</t>
+          <t>-15,67; 6,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 10,49</t>
+          <t>-9,85; 9,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 10,21</t>
+          <t>-11,06; 11,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 9,23</t>
+          <t>-7,33; 13,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 7,45</t>
+          <t>-20,65; 9,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 14,45</t>
+          <t>-12,03; 12,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 27,27</t>
+          <t>-22,03; 32,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 39,59</t>
+          <t>-21,83; 63,6</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 9,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 11,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 10,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 8,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 19,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 34,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,83</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 7,93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 5,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,72; 12,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 14,2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 11,25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 7,36</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 25,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,52; 50,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/P15_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_5-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,5</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>23,09</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,54</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,55%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>41,73%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-12,74%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.596545391914974</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.661366986945213</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>20.76561239110394</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-4.738111750007146</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.04894649072423705</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.02712807519908654</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3542335493993002</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.07961823946413546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 14,11</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,83; 3,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 53,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-34,83; 16,71</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 16,67</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-8,96; 4,26</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 177,1</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-49,6; 42,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.065777692693022</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.233962048100528</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.3903818936908596</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-30.98029593377565</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.01087765802244214</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.09427613587574468</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.004282051427052532</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4499435277385452</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>14.11399600425158</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.052541478101557</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>49.95762013314553</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19.31928305136739</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.1667191262062258</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.03201579686634388</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.432496140179475</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.471263025679978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,46</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>8,77%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>41,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 16,46</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 10,3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,18; 12,32</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,9; 23,77</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,02; 25,52</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 13,43</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-15,81; 24,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; 101,7</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.188903749710118</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.654258332203907</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.287238323985251</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.38845496980976</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.08771550320337601</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.03175097378305864</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.02269421837535704</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4662427060528514</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-5,81%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-1,17%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,99%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.800435670794828</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.32365110787222</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.998567606427702</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.210661048312132</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.05023558658382306</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.07145740078896633</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1608712802744542</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.02588607190895151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,67; 6,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; 9,12</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,06; 11,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,33; 13,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-20,65; 9,65</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-12,03; 12,58</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-22,03; 32,65</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-21,83; 63,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.46076918260406</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.0446465150385</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.51828870124005</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25.00562959913149</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2552140581053774</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1426961601346743</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2491301521763885</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.089365295158033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.187369621844772</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.06637735880957729</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.9398479771146218</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.10986074908271</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.0580985130422071</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.0008494909386016085</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.02114423374665616</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1112844853955891</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.66954234311241</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.522079044526183</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.58575222700893</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.048010555709794</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2064523195194856</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1148732741893706</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2182654000918104</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2283484851070629</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.484276272544289</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.65731178919294</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.34460574295988</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.29941745487726</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.09649055905439156</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1493552591489185</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3500799559859033</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5898164279297415</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,83</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,29%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7,4%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>17,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,75; 7,93</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 5,94</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 12,03</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 14,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 11,25</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 7,36</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 25,02</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-12,52; 50,18</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.702139905955558</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6558596668842176</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.52994408250783</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.072177188981249</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.02290090191770303</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.007852945907890034</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.06729135857945097</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2161012251425694</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.746637006500477</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.617014197860687</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.760182992061733</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.513044991794037</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.06304418894703981</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.05302596758983039</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08307251747541179</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.07435022701245643</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.934568390946276</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.346604355106316</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.64855226287182</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.04505616898047</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1124703101217629</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.09290107348805418</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2421098213611284</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5737643004284031</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
